--- a/public/img/ads.img/ExcelDatabase.xlsx
+++ b/public/img/ads.img/ExcelDatabase.xlsx
@@ -86,9 +86,6 @@
     <t>5.jpeg</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>not so awesome</t>
   </si>
   <si>
@@ -108,6 +105,9 @@
   </si>
   <si>
     <t>Babylon dictionary</t>
+  </si>
+  <si>
+    <t>awesomeness</t>
   </si>
 </sst>
 </file>
@@ -428,7 +428,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -539,16 +539,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
         <v>19</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>
@@ -559,7 +559,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -568,10 +568,10 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -579,7 +579,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -588,10 +588,10 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F8">
         <v>1</v>

--- a/public/img/ads.img/ExcelDatabase.xlsx
+++ b/public/img/ads.img/ExcelDatabase.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>label</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>awesomeness</t>
+  </si>
+  <si>
+    <t>luis_score</t>
   </si>
 </sst>
 </file>
@@ -425,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -437,7 +440,7 @@
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -456,8 +459,11 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -476,8 +482,11 @@
       <c r="F2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -496,8 +505,11 @@
       <c r="F3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -516,8 +528,11 @@
       <c r="F4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -536,8 +551,11 @@
       <c r="F5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -556,8 +574,11 @@
       <c r="F6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -576,8 +597,11 @@
       <c r="F7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -594,6 +618,9 @@
         <v>23</v>
       </c>
       <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
         <v>1</v>
       </c>
     </row>
